--- a/5_Testing_Datasets/Bondi Junction_2022_28.09.2021_Pre_Participants.xlsx
+++ b/5_Testing_Datasets/Bondi Junction_2022_28.09.2021_Pre_Participants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Dummy Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\shiny-seaside\5_Testing_Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD77659-33CA-4513-8CB8-207636EC9F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EC66FB-60C6-499D-9A6A-D4153D028C01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendees" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>Have you previously attended an organised clean-up event (hosted by any organisation)?</t>
   </si>
   <si>
-    <t>On a scale of 1-5 how invested are you in environmental impact?(1 being the least invested)</t>
-  </si>
-  <si>
     <t>How did you find out about this event?</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>On a scale of 1 to 5, where 1 is not engaged at all and 5 is very engaged, how engaged are you in making changes that positively impact the environment?</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
   <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,25 +876,25 @@
         <v>34</v>
       </c>
       <c r="AJ1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
@@ -905,79 +905,79 @@
         <v>44401.276446759257</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2">
         <v>2535666893</v>
       </c>
       <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="X2" t="s">
         <v>48</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" t="s">
-        <v>52</v>
-      </c>
       <c r="AI2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" t="s">
-        <v>55</v>
-      </c>
       <c r="AL2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AM2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>56</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -988,85 +988,85 @@
         <v>44404.450636574067</v>
       </c>
       <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3">
         <v>2539813567</v>
       </c>
       <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
         <v>47</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="X3" t="s">
         <v>48</v>
       </c>
-      <c r="X3" t="s">
-        <v>49</v>
-      </c>
       <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>62</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH3" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK3" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AL3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>56</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -1077,82 +1077,82 @@
         <v>44413.02952546296</v>
       </c>
       <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4">
         <v>2553339943</v>
       </c>
       <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
         <v>46</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>47</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="X4" t="s">
         <v>48</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" t="s">
-        <v>51</v>
-      </c>
       <c r="AA4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AJ4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AM4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>56</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
@@ -1163,82 +1163,82 @@
         <v>44413.48982638889</v>
       </c>
       <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5">
         <v>2553860377</v>
       </c>
       <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
         <v>47</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>48</v>
-      </c>
       <c r="X5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>71</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>72</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AF5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>73</v>
       </c>
-      <c r="AF5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>74</v>
       </c>
-      <c r="AK5" t="s">
-        <v>75</v>
-      </c>
       <c r="AL5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>56</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">
@@ -1249,85 +1249,85 @@
         <v>44413.521493055552</v>
       </c>
       <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6">
         <v>2553911329</v>
       </c>
       <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>47</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="X6" t="s">
         <v>48</v>
       </c>
-      <c r="X6" t="s">
-        <v>49</v>
-      </c>
       <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z6" t="s">
         <v>79</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>80</v>
       </c>
-      <c r="AA6" t="s">
-        <v>81</v>
-      </c>
       <c r="AB6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD6">
         <v>3</v>
       </c>
       <c r="AI6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK6" t="s">
         <v>82</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>83</v>
-      </c>
       <c r="AL6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>56</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
@@ -1338,85 +1338,85 @@
         <v>44414.470625000002</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>2555500717</v>
       </c>
       <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
         <v>46</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
         <v>47</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>48</v>
-      </c>
       <c r="X7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y7">
         <v>10</v>
       </c>
       <c r="Z7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA7" t="s">
         <v>85</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK7" t="s">
         <v>86</v>
       </c>
-      <c r="AD7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AL7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>56</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
@@ -1427,46 +1427,46 @@
         <v>44422.184282407397</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>2568768571</v>
       </c>
       <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
         <v>47</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>48</v>
-      </c>
       <c r="X8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y8">
         <v>46</v>
@@ -1475,48 +1475,48 @@
         <v>1234</v>
       </c>
       <c r="AA8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG8">
         <v>3</v>
       </c>
       <c r="AI8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AJ8">
         <v>3</v>
       </c>
       <c r="AK8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AQ8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="X9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y9">
         <v>34</v>
@@ -1528,30 +1528,30 @@
         <v>2</v>
       </c>
       <c r="AI9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AJ9">
         <v>3</v>
       </c>
       <c r="AK9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="X10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y10">
         <v>12</v>
@@ -1566,30 +1566,30 @@
         <v>1</v>
       </c>
       <c r="AI10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AJ10">
         <v>3</v>
       </c>
       <c r="AK10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="X11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y11">
         <v>42</v>
@@ -1598,30 +1598,30 @@
         <v>2000008</v>
       </c>
       <c r="AI11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AJ11">
         <v>4</v>
       </c>
       <c r="AK11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="X12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1636,30 +1636,30 @@
         <v>2</v>
       </c>
       <c r="AI12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AJ12">
         <v>4</v>
       </c>
       <c r="AK12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="X13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y13">
         <v>34</v>
@@ -1671,30 +1671,30 @@
         <v>3</v>
       </c>
       <c r="AI13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AJ13">
         <v>4</v>
       </c>
       <c r="AK13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="X14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y14">
         <v>63</v>
@@ -1706,30 +1706,30 @@
         <v>1</v>
       </c>
       <c r="AI14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AJ14">
         <v>5</v>
       </c>
       <c r="AK14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y15">
         <v>13</v>
@@ -1738,30 +1738,30 @@
         <v>2312</v>
       </c>
       <c r="AI15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ15">
         <v>5</v>
       </c>
       <c r="AK15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AL15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="X16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y16">
         <v>19</v>
@@ -1773,62 +1773,62 @@
         <v>3</v>
       </c>
       <c r="AI16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ16">
         <v>1</v>
       </c>
       <c r="AK16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="X17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z17">
         <v>2127</v>
       </c>
       <c r="AI17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ17">
         <v>1</v>
       </c>
       <c r="AK17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AL17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="X18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y18">
         <v>26</v>
@@ -1840,30 +1840,30 @@
         <v>2</v>
       </c>
       <c r="AI18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ18">
         <v>2</v>
       </c>
       <c r="AK18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="X19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y19">
         <v>34</v>
@@ -1875,30 +1875,30 @@
         <v>1</v>
       </c>
       <c r="AI19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ19">
         <v>4</v>
       </c>
       <c r="AK19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="X20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -1910,30 +1910,30 @@
         <v>1</v>
       </c>
       <c r="AI20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ20">
         <v>1</v>
       </c>
       <c r="AK20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="X21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
